--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1904088.41932395</v>
+        <v>-1906664.740805191</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>58.92805047992017</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>268.4329337462902</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>104.9866444794633</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>22.38145989469689</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>22.11196976343569</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.2290365055941</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.9304684481742</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.34949884411084</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>108.5748211465611</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>335.2180816111918</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.94871329109056</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>70.70607604584265</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>245.9454996361808</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>53.82913822149973</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>151.8518831495031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.2301075198435</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.24570521548698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652658</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835252</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.14770589484</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.882007288089</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E2" t="n">
-        <v>952.0937546898451</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>541.1078499002376</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>126.0353997452341</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2690.640298888597</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875185</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.2620686932859</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>340.2620686932859</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>340.2620686932859</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>340.2620686932859</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>340.2620686932859</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>172.5592320680049</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>493.2055226857893</v>
+        <v>471.3317757503528</v>
       </c>
       <c r="M4" t="n">
-        <v>660.6380039849871</v>
+        <v>638.7642570495507</v>
       </c>
       <c r="N4" t="n">
-        <v>831.9468410148346</v>
+        <v>810.0730940793983</v>
       </c>
       <c r="O4" t="n">
-        <v>1020.776122302462</v>
+        <v>947.9914432975881</v>
       </c>
       <c r="P4" t="n">
-        <v>1119.727125055221</v>
+        <v>1055.037596261249</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413762</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.81743517129</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981163</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="T4" t="n">
-        <v>629.3649355676423</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="U4" t="n">
-        <v>340.2620686932859</v>
+        <v>843.5450255394077</v>
       </c>
       <c r="V4" t="n">
-        <v>340.2620686932859</v>
+        <v>820.9374902922391</v>
       </c>
       <c r="W4" t="n">
-        <v>340.2620686932859</v>
+        <v>531.5203202552785</v>
       </c>
       <c r="X4" t="n">
-        <v>340.2620686932859</v>
+        <v>531.5203202552785</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.2620686932859</v>
+        <v>310.7277411117484</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2325.505862906803</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1956.543345966391</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1598.277647359641</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1212.489394761397</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>801.5034899717891</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>386.4310398167856</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>88.84743942555281</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3032.255520302333</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2701.192632958763</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2701.192632958763</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.1173538559952</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C7" t="n">
-        <v>659.1173538559952</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D7" t="n">
-        <v>509.0007144436595</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>509.0007144436595</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,7 +4750,7 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
@@ -4759,16 +4759,16 @@
         <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1326.688865137211</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1326.688865137211</v>
       </c>
       <c r="X7" t="n">
-        <v>879.9099329995254</v>
+        <v>1098.699314239194</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.1173538559952</v>
+        <v>877.9067350956636</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>906.604870307395</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>737.6686873794881</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>587.5520479671524</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>439.6389543847592</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>292.7490068868489</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>125.0461702615678</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1855.874269254308</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X10" t="n">
-        <v>906.604870307395</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.604870307395</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5750,22 +5750,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913855</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417938</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972545</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580122</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6628,19 +6628,19 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075823</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150028</v>
@@ -7081,22 +7081,22 @@
         <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7132,7 +7132,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.33868158239</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7190,22 +7190,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,19 +7573,19 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,34 +7661,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
@@ -7795,31 +7795,31 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>51.42518390852322</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8.176919404951974</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>235.6797139074003</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>59.31932472384472</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>39.76837043485753</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>229.7561834291311</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.60187266209377</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.1741753762</v>
+        <v>82889.17417537616</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,19 +26323,19 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="N2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
-      <c r="N2" t="n">
-        <v>102630.2212330354</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3415.825872823351</v>
+        <v>3415.825872823373</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685507</v>
-      </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22207.61133994851</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.6113399485</v>
       </c>
-      <c r="L4" t="n">
-        <v>22207.61133994842</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22207.61133994842</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994848</v>
-      </c>
       <c r="O4" t="n">
-        <v>22207.61133994848</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994851</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1357205.337986433</v>
+        <v>-1357600.158927587</v>
       </c>
       <c r="C6" t="n">
-        <v>-98707.50617656425</v>
+        <v>-98707.50617656422</v>
       </c>
       <c r="D6" t="n">
-        <v>-98707.50617656426</v>
+        <v>-98707.50617656411</v>
       </c>
       <c r="E6" t="n">
-        <v>-339858.4187468666</v>
+        <v>-339893.1566723023</v>
       </c>
       <c r="F6" t="n">
-        <v>-14445.95693951145</v>
+        <v>-14480.69486494709</v>
       </c>
       <c r="G6" t="n">
-        <v>-14445.95693951138</v>
+        <v>-14480.6948649471</v>
       </c>
       <c r="H6" t="n">
-        <v>-14445.95693951144</v>
+        <v>-14480.69486494706</v>
       </c>
       <c r="I6" t="n">
-        <v>-14445.95693951141</v>
+        <v>-14480.6948649471</v>
       </c>
       <c r="J6" t="n">
-        <v>-231977.1593367889</v>
+        <v>-232011.8972622247</v>
       </c>
       <c r="K6" t="n">
-        <v>-42169.22395446013</v>
+        <v>-42169.22395446005</v>
       </c>
       <c r="L6" t="n">
-        <v>-22741.50596082852</v>
+        <v>-22741.50596082833</v>
       </c>
       <c r="M6" t="n">
         <v>-107796.5338963403</v>
       </c>
       <c r="N6" t="n">
-        <v>-22741.50596082852</v>
+        <v>-22741.50596082842</v>
       </c>
       <c r="O6" t="n">
-        <v>-22741.50596082841</v>
+        <v>-22741.50596082848</v>
       </c>
       <c r="P6" t="n">
-        <v>-42169.22395446029</v>
+        <v>-42169.2239544602</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203965</v>
-      </c>
       <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>19.46496000949026</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>69.76613545330792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>114.490579574757</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.7881444797172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>256.6980706244464</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>34.51301906727724</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>86.80630162323023</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0629492855992</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279222</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>724.9681211658383</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.745607266772</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>354.9153144485695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817565</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>190.7366477652805</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>108.1274272360214</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059039</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>582.8340872438199</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394536</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367759</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316675</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
